--- a/1.2-exercicio-locadora/1.2-exercicio-locadora-excel.xlsx
+++ b/1.2-exercicio-locadora/1.2-exercicio-locadora-excel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E674E22-0F44-47DB-9EE7-4A4540706656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91304AE7-3DA7-48C8-9E0D-86AE5DD3EBB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,26 +26,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Empresas</t>
   </si>
   <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>Modelos</t>
+  </si>
+  <si>
     <t>Veiculos</t>
   </si>
   <si>
+    <t>Clientes</t>
+  </si>
+  <si>
     <t>Alugueis</t>
   </si>
   <si>
-    <t>Modelos</t>
-  </si>
-  <si>
-    <t>Marcas</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
     <t>idEmpresa</t>
   </si>
   <si>
@@ -61,6 +61,18 @@
     <t>Endereco</t>
   </si>
   <si>
+    <t>idMarca</t>
+  </si>
+  <si>
+    <t>Slogan</t>
+  </si>
+  <si>
+    <t>idModelo</t>
+  </si>
+  <si>
+    <t>TipoModelo</t>
+  </si>
+  <si>
     <t>idVeiculo</t>
   </si>
   <si>
@@ -70,10 +82,19 @@
     <t>Cor</t>
   </si>
   <si>
-    <t>idModelo</t>
-  </si>
-  <si>
-    <t>idMarca</t>
+    <t>idCliente</t>
+  </si>
+  <si>
+    <t>nomeCliente</t>
+  </si>
+  <si>
+    <t>cnhCliente</t>
+  </si>
+  <si>
+    <t>idadeCliente</t>
+  </si>
+  <si>
+    <t>telefoneCliente</t>
   </si>
   <si>
     <t>idAluguel</t>
@@ -91,21 +112,6 @@
     <t>Preco</t>
   </si>
   <si>
-    <t>TipoModelo</t>
-  </si>
-  <si>
-    <t>Slogan</t>
-  </si>
-  <si>
-    <t>idCliente</t>
-  </si>
-  <si>
-    <t>CNH</t>
-  </si>
-  <si>
-    <t>Idade</t>
-  </si>
-  <si>
     <t>Uber</t>
   </si>
   <si>
@@ -118,12 +124,33 @@
     <t>R. Tchubiram, 36</t>
   </si>
   <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>A PAIXÃO MOVE</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Gol Bolinha</t>
+  </si>
+  <si>
     <t>AAA-000</t>
   </si>
   <si>
     <t>Verde</t>
   </si>
   <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>00000000-0</t>
+  </si>
+  <si>
+    <t>(11) 93454-9843</t>
+  </si>
+  <si>
     <t>15h30</t>
   </si>
   <si>
@@ -133,24 +160,6 @@
     <t>10/03/2021</t>
   </si>
   <si>
-    <t>Gol</t>
-  </si>
-  <si>
-    <t>Gol Bolinha</t>
-  </si>
-  <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t>A PAIXÃO MOVE</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>123456789-x</t>
-  </si>
-  <si>
     <t>99taxi</t>
   </si>
   <si>
@@ -163,12 +172,33 @@
     <t>R. Feijoada Boa, 98</t>
   </si>
   <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Das Auto</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>Uno Quadrado</t>
+  </si>
+  <si>
     <t>BBB-111</t>
   </si>
   <si>
     <t>Branco</t>
   </si>
   <si>
+    <t>Luana</t>
+  </si>
+  <si>
+    <t>11111111-0</t>
+  </si>
+  <si>
+    <t>(11) 98763-9809</t>
+  </si>
+  <si>
     <t>17h55</t>
   </si>
   <si>
@@ -176,24 +206,6 @@
   </si>
   <si>
     <t>05/03/2021</t>
-  </si>
-  <si>
-    <t>Uno</t>
-  </si>
-  <si>
-    <t>Uno Quadrado</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Das Auto</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>987654321-x</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,25 +305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,67 +328,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,364 +699,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AJ1:AK3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="N1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="T1" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="P1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="X1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="V1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AD1" s="16" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AC1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="21"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="T2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="19">
+        <v>1</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>550</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2</v>
+      </c>
+      <c r="V4" s="19">
+        <v>2</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="19">
         <v>19</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="21"/>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="9">
-        <v>550</v>
-      </c>
-      <c r="T3" s="11">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="15">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="18">
-        <v>22</v>
-      </c>
-      <c r="AH3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="18">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="21"/>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="Z4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="6">
         <v>495</v>
       </c>
-      <c r="T4" s="11">
-        <v>2</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" s="18">
-        <v>30</v>
-      </c>
-      <c r="AH4" s="18">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="19"/>
+      <c r="AH4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="AC1:AI1"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AD1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
